--- a/Misc/BioEcon_Parameters Kotze 2017-10-16.xlsx
+++ b/Misc/BioEcon_Parameters Kotze 2017-10-16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540"/>
+    <workbookView xWindow="10300" yWindow="460" windowWidth="18500" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Misc/BioEcon_Parameters Kotze 2017-10-16.xlsx
+++ b/Misc/BioEcon_Parameters Kotze 2017-10-16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="460" windowWidth="18500" windowHeight="17540"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="211">
   <si>
     <t>iterations</t>
   </si>
@@ -697,6 +697,15 @@
   </si>
   <si>
     <t>MVC data</t>
+  </si>
+  <si>
+    <t>Calculated from Hamson et al. 2015 and estimated total dog population</t>
+  </si>
+  <si>
+    <t>Hampson et al. 2015, SACAC 2011</t>
+  </si>
+  <si>
+    <t>Hampson et al. 2015, SACAC 2012</t>
   </si>
 </sst>
 </file>
@@ -793,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,18 +823,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1056,19 +1059,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1123,7 +1113,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1144,16 +1134,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1166,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1190,17 +1177,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1224,6 +1200,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1764,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1775,7 +1761,7 @@
     <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="59.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" style="2"/>
     <col min="9" max="10" width="8.83203125" style="1"/>
@@ -1784,41 +1770,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1836,10 +1822,10 @@
       <c r="F3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1857,21 +1843,21 @@
       <c r="F4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1889,12 +1875,12 @@
       <c r="F6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1912,12 +1898,12 @@
       <c r="F7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1935,12 +1921,12 @@
       <c r="F8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1958,12 +1944,12 @@
       <c r="F9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1981,12 +1967,12 @@
       <c r="F10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2004,12 +1990,12 @@
       <c r="F11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2027,12 +2013,12 @@
       <c r="F12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2050,23 +2036,23 @@
       <c r="F13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2084,12 +2070,12 @@
       <c r="F15" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2107,12 +2093,12 @@
       <c r="F16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -2130,12 +2116,12 @@
       <c r="F17" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2153,12 +2139,12 @@
       <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2176,12 +2162,12 @@
       <c r="F19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2199,12 +2185,12 @@
       <c r="F20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2222,12 +2208,12 @@
       <c r="F21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2245,12 +2231,12 @@
       <c r="F22" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2268,12 +2254,12 @@
       <c r="F23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2291,12 +2277,12 @@
       <c r="F24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2314,12 +2300,12 @@
       <c r="F25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2337,12 +2323,12 @@
       <c r="F26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2360,12 +2346,12 @@
       <c r="F27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2383,24 +2369,24 @@
       <c r="F28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2418,12 +2404,12 @@
       <c r="F30" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -2441,12 +2427,12 @@
       <c r="F31" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2464,12 +2450,12 @@
       <c r="F32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -2487,12 +2473,12 @@
       <c r="F33" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2510,12 +2496,12 @@
       <c r="F34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -2533,12 +2519,12 @@
       <c r="F35" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2556,12 +2542,12 @@
       <c r="F36" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2579,12 +2565,12 @@
       <c r="F37" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2602,93 +2588,93 @@
       <c r="F38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="42">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="E40" s="50">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="E41" s="52">
+        <v>6.7559999999999995E-2</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>127</v>
+      <c r="E42" s="53">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2701,17 +2687,17 @@
         <v>16</v>
       </c>
       <c r="E43" s="8">
-        <v>0.91</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -2729,12 +2715,12 @@
       <c r="F44" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2752,24 +2738,24 @@
       <c r="F45" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -2787,12 +2773,12 @@
       <c r="F47" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -2807,15 +2793,15 @@
       <c r="E48" s="11">
         <v>150</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -2830,15 +2816,15 @@
       <c r="E49" s="11">
         <v>150</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -2856,12 +2842,12 @@
       <c r="F50" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -2879,12 +2865,12 @@
       <c r="F51" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -2899,15 +2885,15 @@
       <c r="E52" s="11">
         <v>30</v>
       </c>
-      <c r="F52" s="47" t="s">
+      <c r="F52" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -2925,12 +2911,12 @@
       <c r="F53" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -2948,12 +2934,12 @@
       <c r="F54" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -2968,15 +2954,15 @@
       <c r="E55" s="11">
         <v>2</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -2991,15 +2977,15 @@
       <c r="E56" s="11">
         <v>2</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -3018,12 +3004,12 @@
       <c r="F57" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3042,12 +3028,12 @@
       <c r="F58" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -3066,31 +3052,31 @@
       <c r="F59" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="42">
         <f>E59+ 36.81 * 0.25 * E6</f>
         <v>8453.7000000000007</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G60" s="51" t="s">
+      <c r="G60" s="43" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3126,7 +3112,7 @@
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="18" t="s">
         <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3145,7 +3131,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="23" t="s">
         <v>149</v>
       </c>
       <c r="I75" s="1">
@@ -3158,7 +3144,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="23" t="s">
         <v>150</v>
       </c>
       <c r="I77" s="4">
@@ -3197,7 +3183,7 @@
       <c r="A95" s="2"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="41"/>
+      <c r="B97" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3219,2454 +3205,2454 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N41"/>
+      <selection activeCell="S17" sqref="S17:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="37"/>
-    <col min="14" max="14" width="8.83203125" style="40"/>
+    <col min="13" max="13" width="8.83203125" style="34"/>
+    <col min="14" max="14" width="8.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>159</v>
       </c>
       <c r="L1" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="24">
         <v>89</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>29116000</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="26">
         <v>0.01</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>290.12684000000002</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>1768.08988000152</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="27">
         <v>6.0725713696988697</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="25">
         <v>71709.954921423006</v>
       </c>
       <c r="L2">
         <v>0.01</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="34">
         <v>2E-3</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="36">
         <f>H2</f>
         <v>6.0725713696988697</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>9213000</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="25">
         <v>177.60799683642901</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <v>1.9277976428571499</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="25">
         <v>10552.6084736794</v>
       </c>
       <c r="L3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="34">
         <v>1.1454041543123195E-3</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="36">
         <f t="shared" ref="N3:N41" si="0">H3</f>
         <v>1.9277976428571499</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="24">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="25">
         <v>16284000</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="25">
         <v>879.84141615418002</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>5.4031037592371698</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="25">
         <v>14582.275841679701</v>
       </c>
       <c r="L4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="34">
         <v>8.9549716541879767E-4</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="36">
         <f t="shared" si="0"/>
         <v>5.4031037592371698</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <v>19958000</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>196.12923263569499</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <v>0.98270985387160603</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="25">
         <v>24216.334655163999</v>
       </c>
       <c r="L5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="34">
         <v>1.2133647988357551E-3</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="36">
         <f t="shared" si="0"/>
         <v>0.98270985387160603</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="24">
         <v>10</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="25">
         <v>11505000</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>1</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="24">
         <v>12.899999999999999</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <v>64.202978644856799</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>0.55804414293660909</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="25">
         <v>1022.4655814443699</v>
       </c>
       <c r="L6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="34">
         <v>8.8871410816546712E-5</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="36">
         <f t="shared" si="0"/>
         <v>0.55804414293660909</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="A7" s="24">
         <v>13</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="25">
         <v>21570000</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="25">
         <v>568.93203865343696</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <v>2.63760796779526</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="25">
         <v>23605.391754177501</v>
       </c>
       <c r="L7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="34">
         <v>1.0943621582836115E-3</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="36">
         <f t="shared" si="0"/>
         <v>2.63760796779526</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>21</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="25">
         <v>1750000</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="25">
         <v>36.642018344107299</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>2.0938296196632802</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="25">
         <v>1983.5635811196601</v>
       </c>
       <c r="L8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="34">
         <v>1.1334649034969485E-3</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="36">
         <f t="shared" si="0"/>
         <v>2.0938296196632802</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>22</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="25">
         <v>24332000</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="25">
         <v>112.467025561315</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <v>0.46221858277706396</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="25">
         <v>30434.2949250438</v>
       </c>
       <c r="L9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="34">
         <v>1.250792985576352E-3</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="36">
         <f t="shared" si="0"/>
         <v>0.46221858277706396</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>24</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>1643000</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="25">
         <v>71.762458388678994</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="27">
         <v>4.3677698349774197</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="25">
         <v>1593.6234968397</v>
       </c>
       <c r="L10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="34">
         <v>9.6994735048064513E-4</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="36">
         <f t="shared" si="0"/>
         <v>4.3677698349774197</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>27</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>4101000</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="25">
         <v>225.71309231279801</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <v>5.5038549698316999</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="25">
         <v>3642.7223205413302</v>
       </c>
       <c r="L11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="34">
         <v>8.8825221178769325E-4</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="36">
         <f t="shared" si="0"/>
         <v>5.5038549698316999</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+      <c r="A12" s="24">
         <v>31</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="25">
         <v>13324000</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="24">
         <v>58.089999999999996</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="25">
         <v>247.73669685129801</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="27">
         <v>1.8593267551133101</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="25">
         <v>5958.4532226578303</v>
       </c>
       <c r="L12">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="34">
         <v>4.4719702962007135E-4</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="36">
         <f t="shared" si="0"/>
         <v>1.8593267551133101</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+      <c r="A13" s="24">
         <v>32</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="25">
         <v>3365000</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="25">
         <v>47.402742729739998</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="27">
         <v>1.4086996353563102</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="25">
         <v>3979.8936927570999</v>
       </c>
       <c r="L13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="34">
         <v>1.1827321523795245E-3</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="36">
         <f t="shared" si="0"/>
         <v>1.4086996353563102</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>37</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="25">
         <v>15892000</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>1</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="25">
         <v>1168.7792832405401</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <v>7.3545134862858204</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="25">
         <v>12001.2024630202</v>
       </c>
       <c r="L14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="34">
         <v>7.5517256877801408E-4</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="36">
         <f t="shared" si="0"/>
         <v>7.3545134862858204</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+      <c r="A15" s="24">
         <v>41</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="25">
         <v>12860000</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="24">
         <v>1</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="25">
         <v>168.283020365602</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="27">
         <v>1.3085771412566198</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="25">
         <v>15302.524175086501</v>
       </c>
       <c r="L15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="34">
         <v>1.1899318954188569E-3</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="36">
         <f t="shared" si="0"/>
         <v>1.3085771412566198</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+      <c r="A16" s="24">
         <v>43</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="25">
         <v>5835000</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="24">
         <v>1</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="24">
         <v>128.40308214285699</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="25">
         <v>300.84501509622601</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="27">
         <v>5.1558700102180994</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="25">
         <v>5328.9630241365703</v>
       </c>
       <c r="L16">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="34">
         <v>9.132755825426856E-4</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="36">
         <f t="shared" si="0"/>
         <v>5.1558700102180994</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+      <c r="A17" s="24">
         <v>20</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="25">
         <v>1501000</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <v>1</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="26">
         <v>7.8667549999999996E-3</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="25">
         <v>1.255709959914</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="27">
         <v>8.365822517748181E-2</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="25">
         <v>1992.03374247132</v>
       </c>
       <c r="L17">
         <v>7.8667549999999996E-3</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="34">
         <v>1.3271377364898868E-3</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="36">
         <f t="shared" si="0"/>
         <v>8.365822517748181E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="A18" s="24">
         <v>94</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="25">
         <v>15055000</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="24">
         <v>650</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="25">
         <v>446.14177283994098</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="27">
         <v>2.9634126392556701</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="25">
         <v>94661.654912433703</v>
       </c>
       <c r="L18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="34">
         <v>6.287722013446277E-3</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="36">
         <f t="shared" si="0"/>
         <v>2.9634126392556701</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+      <c r="A19" s="24">
         <v>96</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="25">
         <v>23990000</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="24">
         <v>1</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="24">
         <v>587.26499999999999</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="25">
         <v>26.185818829720102</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="27">
         <v>0.10915305889837501</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="25">
         <v>140697.29675743601</v>
       </c>
       <c r="L19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="34">
         <v>5.8648310444950396E-3</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="36">
         <f t="shared" si="0"/>
         <v>0.10915305889837501</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="A20" s="24">
         <v>112</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="25">
         <v>50494000</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="24">
         <v>1</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="24">
         <v>1188.26</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="25">
         <v>4552.1200293217898</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="27">
         <v>9.0151701772919299</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="25">
         <v>567391.82619441499</v>
       </c>
       <c r="L20">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="34">
         <v>1.1236816774159603E-2</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="36">
         <f t="shared" si="0"/>
         <v>9.0151701772919299</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+      <c r="A21" s="24">
         <v>2</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="25">
         <v>18992000</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="24">
         <v>1</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="25">
         <v>185.32950281269501</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="27">
         <v>0.97582931135580808</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="25">
         <v>23994.2028867673</v>
       </c>
       <c r="L21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="34">
         <v>1.263384734981429E-3</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="36">
         <f t="shared" si="0"/>
         <v>0.97582931135580808</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+      <c r="A22" s="24">
         <v>4</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="25">
         <v>1978000</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="24">
         <v>1</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="24">
         <v>149.356128571429</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="25">
         <v>3.2052627492526899</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="27">
         <v>0.16204563949710302</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="25">
         <v>2931.3480826786499</v>
       </c>
       <c r="L22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="34">
         <v>1.481975774862816E-3</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="36">
         <f t="shared" si="0"/>
         <v>0.16204563949710302</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+      <c r="A23" s="24">
         <v>6</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="25">
         <v>8521000</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="25">
         <v>550.17062703704903</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="27">
         <v>6.4566439037325303</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="25">
         <v>7426.3236510960696</v>
       </c>
       <c r="L23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="34">
         <v>8.7153193886821618E-4</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="36">
         <f t="shared" si="0"/>
         <v>6.4566439037325303</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+      <c r="A24" s="24">
         <v>9</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="25">
         <v>4504000</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="24">
         <v>1</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="25">
         <v>226.76403545014799</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="27">
         <v>5.0347254762466198</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="25">
         <v>4383.2590403265904</v>
       </c>
       <c r="L24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="34">
         <v>9.7319250451300852E-4</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N24" s="36">
         <f t="shared" si="0"/>
         <v>5.0347254762466198</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
+      <c r="A25" s="24">
         <v>14</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="25">
         <v>67826000</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="24">
         <v>1</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="25">
         <v>5579.2458145529899</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="27">
         <v>8.2258216827661794</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="25">
         <v>50533.350403410899</v>
       </c>
       <c r="L25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="34">
         <v>7.450439419014965E-4</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="36">
         <f t="shared" si="0"/>
         <v>8.2258216827661794</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+      <c r="A26" s="24">
         <v>17</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="25">
         <v>694000</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="24">
         <v>1</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="25">
         <v>3.5278326555442798</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="27">
         <v>0.50833323566920396</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="25">
         <v>899.98512247394694</v>
       </c>
       <c r="L26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="34">
         <v>1.2968085338241309E-3</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="36">
         <f t="shared" si="0"/>
         <v>0.50833323566920396</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
+      <c r="A27" s="24">
         <v>19</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="25">
         <v>84977000</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="24">
         <v>1</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="24">
         <v>105.57</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="25">
         <v>2771.47063170507</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="27">
         <v>3.2614361906222502</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="25">
         <v>69895.490667999402</v>
       </c>
       <c r="L27">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="34">
         <v>8.22522455111376E-4</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="36">
         <f t="shared" si="0"/>
         <v>3.2614361906222502</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+      <c r="A28" s="24">
         <v>23</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="25">
         <v>10322000</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="24">
         <v>1</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="25">
         <v>514.65453131767401</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="27">
         <v>4.9859962344281499</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="25">
         <v>10081.2539974833</v>
       </c>
       <c r="L28">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="34">
         <v>9.7667641905476647E-4</v>
       </c>
-      <c r="N28" s="39">
+      <c r="N28" s="36">
         <f t="shared" si="0"/>
         <v>4.9859962344281499</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+      <c r="A29" s="24">
         <v>25</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="25">
         <v>40863000</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="24">
         <v>1</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="24">
         <v>234</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="25">
         <v>522.67057876329397</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="27">
         <v>1.27908028965885</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="25">
         <v>91882.568036071505</v>
       </c>
       <c r="L29">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="34">
         <v>2.2485516980170692E-3</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="36">
         <f t="shared" si="0"/>
         <v>1.27908028965885</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+      <c r="A30" s="24">
         <v>26</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="25">
         <v>2085000</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="24">
         <v>149.356128571429</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="25">
         <v>35.646308964340498</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="27">
         <v>1.70965510620338</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="25">
         <v>2859.2207220831601</v>
       </c>
       <c r="L30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="34">
         <v>1.3713288834931224E-3</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="36">
         <f t="shared" si="0"/>
         <v>1.70965510620338</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="27">
+      <c r="A31" s="24">
         <v>29</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="25">
         <v>20147000</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="24">
         <v>1</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="24">
         <v>124.09</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="25">
         <v>197.33873213487001</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="27">
         <v>0.97949437700337605</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="25">
         <v>23589.531988959399</v>
       </c>
       <c r="L31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="34">
         <v>1.1708706998044076E-3</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="36">
         <f t="shared" si="0"/>
         <v>0.97949437700337605</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="27">
+      <c r="A32" s="24">
         <v>30</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="25">
         <v>15689000</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="24">
         <v>1</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="24">
         <v>149.356128571429</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="25">
         <v>484.12845146383899</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="27">
         <v>3.0857827233338</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="25">
         <v>19971.189362851299</v>
       </c>
       <c r="L32">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="34">
         <v>1.2729421481835234E-3</v>
       </c>
-      <c r="N32" s="39">
+      <c r="N32" s="36">
         <f t="shared" si="0"/>
         <v>3.0857827233338</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="27">
+      <c r="A33" s="24">
         <v>36</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="25">
         <v>2213000</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="24">
         <v>1</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="24">
         <v>149.356128571429</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="25">
         <v>3.9851723767704201</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="27">
         <v>0.18008008932536898</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="25">
         <v>3276.7589930942299</v>
       </c>
       <c r="L33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="34">
         <v>1.4806863954334522E-3</v>
       </c>
-      <c r="N33" s="39">
+      <c r="N33" s="36">
         <f t="shared" si="0"/>
         <v>0.18008008932536898</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
+      <c r="A34" s="24">
         <v>47</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="25">
         <v>1200000</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="24">
         <v>1</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="24">
         <v>149.356128571429</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="25">
         <v>8.2928537871897099</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="27">
         <v>0.69107114893247601</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="25">
         <v>1732.9834886234501</v>
       </c>
       <c r="L34">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="34">
         <v>1.4441529071862083E-3</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="36">
         <f t="shared" si="0"/>
         <v>0.69107114893247601</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+      <c r="A35" s="24">
         <v>51</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="25">
         <v>45039000</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="24">
         <v>1</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="24">
         <v>81.5</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="25">
         <v>345.05282848211601</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="27">
         <v>0.76612009254671698</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="25">
         <v>34239.817483245199</v>
       </c>
       <c r="L35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="34">
         <v>7.6022597045327829E-4</v>
       </c>
-      <c r="N35" s="39">
+      <c r="N35" s="36">
         <f t="shared" si="0"/>
         <v>0.76612009254671698</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="27">
+      <c r="A36" s="24">
         <v>46</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="25">
         <v>43194000</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="24">
         <v>1</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="26">
         <v>2E-3</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="24">
         <v>24.860000000000003</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="25">
         <v>203.649775020737</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="27">
         <v>0.47147699916825803</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="25">
         <v>9290.3842320823096</v>
       </c>
       <c r="L36">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="34">
         <v>2.150850634829446E-4</v>
       </c>
-      <c r="N36" s="39">
+      <c r="N36" s="36">
         <f t="shared" si="0"/>
         <v>0.47147699916825803</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="27">
+      <c r="A37" s="24">
         <v>113</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="25">
         <v>29852000</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="24">
         <v>1</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="26">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="24">
         <v>335</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="25">
         <v>1044.35717142976</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="27">
         <v>3.4984495894069503</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="25">
         <v>92584.653478091801</v>
       </c>
       <c r="L37">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="34">
         <v>3.1014556303795996E-3</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="36">
         <f t="shared" si="0"/>
         <v>3.4984495894069503</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
+      <c r="A38" s="24">
         <v>15</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="25">
         <v>879000</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="24">
         <v>1</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="26">
         <v>1E-3</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="24">
         <v>195.446</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="25">
         <v>25.226158537463899</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="27">
         <v>2.86987014078088</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="25">
         <v>1538.9932821342099</v>
       </c>
       <c r="L38">
         <v>1E-3</v>
       </c>
-      <c r="M38" s="37">
+      <c r="M38" s="34">
         <v>1.7508455996976223E-3</v>
       </c>
-      <c r="N38" s="39">
+      <c r="N38" s="36">
         <f t="shared" si="0"/>
         <v>2.86987014078088</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
+      <c r="A39" s="24">
         <v>18</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="25">
         <v>5222000</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="24">
         <v>1</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="26">
         <v>1E-3</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="24">
         <v>195.446</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="25">
         <v>366.20514813194598</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="27">
         <v>7.0127374211403</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="25">
         <v>7608.0014227149304</v>
       </c>
       <c r="L39">
         <v>1E-3</v>
       </c>
-      <c r="M39" s="37">
+      <c r="M39" s="34">
         <v>1.4569133325765856E-3</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="36">
         <f t="shared" si="0"/>
         <v>7.0127374211403</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
+      <c r="A40" s="24">
         <v>44</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="25">
         <v>9359000</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="24">
         <v>1</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="26">
         <v>1E-3</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="24">
         <v>195.446</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="25">
         <v>1154.2642608219401</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="27">
         <v>12.3332007780953</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="25">
         <v>10102.4022921209</v>
       </c>
       <c r="L40">
         <v>1E-3</v>
       </c>
-      <c r="M40" s="37">
+      <c r="M40" s="34">
         <v>1.0794318081120738E-3</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="36">
         <f t="shared" si="0"/>
         <v>12.3332007780953</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
+      <c r="A41" s="24">
         <v>12</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="25">
         <v>3759000</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="24">
         <v>1</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="26">
         <v>7.72227E-4</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="24">
         <v>133.3152</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="25">
         <v>20.286098281204801</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="27">
         <v>0.53966741902646598</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="25">
         <v>4867.45326572673</v>
       </c>
       <c r="L41">
         <v>7.72227E-4</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="34">
         <v>1.2948798259448603E-3</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="36">
         <f t="shared" si="0"/>
         <v>0.53966741902646598</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="28"/>
-      <c r="N42" s="39"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="25"/>
+      <c r="N42" s="36"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="28"/>
-      <c r="N43" s="39"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="25"/>
+      <c r="N43" s="36"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="28"/>
-      <c r="N44" s="39"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="25"/>
+      <c r="N44" s="36"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28"/>
-      <c r="N45" s="39"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="25"/>
+      <c r="N45" s="36"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="28"/>
-      <c r="N46" s="39"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="25"/>
+      <c r="N46" s="36"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="28"/>
-      <c r="N47" s="39"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="25"/>
+      <c r="N47" s="36"/>
     </row>
     <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="28"/>
-      <c r="N48" s="39"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="25"/>
+      <c r="N48" s="36"/>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="28"/>
-      <c r="N49" s="39"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="25"/>
+      <c r="N49" s="36"/>
     </row>
     <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="28"/>
-      <c r="N50" s="39"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="25"/>
+      <c r="N50" s="36"/>
     </row>
     <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="28"/>
-      <c r="N51" s="39"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="25"/>
+      <c r="N51" s="36"/>
     </row>
     <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="28"/>
-      <c r="N52" s="39"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="25"/>
+      <c r="N52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="28"/>
-      <c r="N53" s="39"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="25"/>
+      <c r="N53" s="36"/>
     </row>
     <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="28"/>
-      <c r="N54" s="39"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="25"/>
+      <c r="N54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="28"/>
-      <c r="N55" s="39"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="25"/>
+      <c r="N55" s="36"/>
     </row>
     <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="28"/>
-      <c r="N56" s="39"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="25"/>
+      <c r="N56" s="36"/>
     </row>
     <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="28"/>
-      <c r="N57" s="39"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="25"/>
+      <c r="N57" s="36"/>
     </row>
     <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="28"/>
-      <c r="N58" s="39"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="25"/>
+      <c r="N58" s="36"/>
     </row>
     <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="28"/>
-      <c r="N59" s="39"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="25"/>
+      <c r="N59" s="36"/>
     </row>
     <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="28"/>
-      <c r="N60" s="39"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="25"/>
+      <c r="N60" s="36"/>
     </row>
     <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="28"/>
-      <c r="N61" s="39"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="25"/>
+      <c r="N61" s="36"/>
     </row>
     <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="28"/>
-      <c r="N62" s="39"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="25"/>
+      <c r="N62" s="36"/>
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="28"/>
-      <c r="N63" s="39"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="25"/>
+      <c r="N63" s="36"/>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="28"/>
-      <c r="N64" s="39"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="25"/>
+      <c r="N64" s="36"/>
     </row>
     <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="28"/>
-      <c r="N65" s="39"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="25"/>
+      <c r="N65" s="36"/>
     </row>
     <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="28"/>
-      <c r="N66" s="39"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="25"/>
+      <c r="N66" s="36"/>
     </row>
     <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="28"/>
-      <c r="N67" s="39"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="25"/>
+      <c r="N67" s="36"/>
     </row>
     <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="28"/>
-      <c r="N68" s="39"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="25"/>
+      <c r="N68" s="36"/>
     </row>
     <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="28"/>
-      <c r="N69" s="39"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="25"/>
+      <c r="N69" s="36"/>
     </row>
     <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="28"/>
-      <c r="N70" s="39"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="25"/>
+      <c r="N70" s="36"/>
     </row>
     <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="28"/>
-      <c r="N71" s="39"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="25"/>
+      <c r="N71" s="36"/>
     </row>
     <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="28"/>
-      <c r="N72" s="39"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="25"/>
+      <c r="N72" s="36"/>
     </row>
     <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="28"/>
-      <c r="N73" s="39"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="25"/>
+      <c r="N73" s="36"/>
     </row>
     <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="28"/>
-      <c r="N74" s="39"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="25"/>
+      <c r="N74" s="36"/>
     </row>
     <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="28"/>
-      <c r="N75" s="39"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="25"/>
+      <c r="N75" s="36"/>
     </row>
     <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="28"/>
-      <c r="N76" s="39"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="25"/>
+      <c r="N76" s="36"/>
     </row>
     <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="28"/>
-      <c r="N77" s="39"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="25"/>
+      <c r="N77" s="36"/>
     </row>
     <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="28"/>
-      <c r="N78" s="39"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="25"/>
+      <c r="N78" s="36"/>
     </row>
     <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="28"/>
-      <c r="N79" s="39"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="25"/>
+      <c r="N79" s="36"/>
     </row>
     <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="28"/>
-      <c r="N80" s="39"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="25"/>
+      <c r="N80" s="36"/>
     </row>
     <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="28"/>
-      <c r="N81" s="39"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="25"/>
+      <c r="N81" s="36"/>
     </row>
     <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="28"/>
-      <c r="N82" s="39"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="25"/>
+      <c r="N82" s="36"/>
     </row>
     <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="28"/>
-      <c r="N83" s="39"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="25"/>
+      <c r="N83" s="36"/>
     </row>
     <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="28"/>
-      <c r="N84" s="39"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="25"/>
+      <c r="N84" s="36"/>
     </row>
     <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="28"/>
-      <c r="N85" s="39"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="25"/>
+      <c r="N85" s="36"/>
     </row>
     <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="28"/>
-      <c r="N86" s="39"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="25"/>
+      <c r="N86" s="36"/>
     </row>
     <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="28"/>
-      <c r="N87" s="39"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="25"/>
+      <c r="N87" s="36"/>
     </row>
     <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="28"/>
-      <c r="N88" s="39"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="25"/>
+      <c r="N88" s="36"/>
     </row>
     <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="28"/>
-      <c r="N89" s="39"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="25"/>
+      <c r="N89" s="36"/>
     </row>
     <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="28"/>
-      <c r="N90" s="39"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="25"/>
+      <c r="N90" s="36"/>
     </row>
     <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="28"/>
-      <c r="N91" s="39"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="25"/>
+      <c r="N91" s="36"/>
     </row>
     <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="28"/>
-      <c r="N92" s="39"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="25"/>
+      <c r="N92" s="36"/>
     </row>
     <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="28"/>
-      <c r="N93" s="39"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="25"/>
+      <c r="N93" s="36"/>
     </row>
     <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="28"/>
-      <c r="N94" s="39"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="25"/>
+      <c r="N94" s="36"/>
     </row>
     <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="28"/>
-      <c r="N95" s="39"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="25"/>
+      <c r="N95" s="36"/>
     </row>
     <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="28"/>
-      <c r="N96" s="39"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="25"/>
+      <c r="N96" s="36"/>
     </row>
     <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="28"/>
-      <c r="N97" s="39"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="25"/>
+      <c r="N97" s="36"/>
     </row>
     <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="28"/>
-      <c r="N98" s="39"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="25"/>
+      <c r="N98" s="36"/>
     </row>
     <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="28"/>
-      <c r="N99" s="39"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="25"/>
+      <c r="N99" s="36"/>
     </row>
     <row r="100" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="28"/>
-      <c r="N100" s="39"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="25"/>
+      <c r="N100" s="36"/>
     </row>
     <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="28"/>
-      <c r="N101" s="39"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="25"/>
+      <c r="N101" s="36"/>
     </row>
     <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="28"/>
-      <c r="N102" s="39"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="25"/>
+      <c r="N102" s="36"/>
     </row>
     <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="28"/>
-      <c r="N103" s="39"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="25"/>
+      <c r="N103" s="36"/>
     </row>
     <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="28"/>
-      <c r="N104" s="39"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="25"/>
+      <c r="N104" s="36"/>
     </row>
     <row r="105" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="28"/>
-      <c r="N105" s="39"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="25"/>
+      <c r="N105" s="36"/>
     </row>
     <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="28"/>
-      <c r="N106" s="39"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="25"/>
+      <c r="N106" s="36"/>
     </row>
     <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="28"/>
-      <c r="N107" s="39"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="25"/>
+      <c r="N107" s="36"/>
     </row>
     <row r="108" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="28"/>
-      <c r="N108" s="39"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="25"/>
+      <c r="N108" s="36"/>
     </row>
     <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="28"/>
-      <c r="N109" s="39"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="25"/>
+      <c r="N109" s="36"/>
     </row>
     <row r="110" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="28"/>
-      <c r="N110" s="39"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="25"/>
+      <c r="N110" s="36"/>
     </row>
     <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="28"/>
-      <c r="N111" s="39"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="25"/>
+      <c r="N111" s="36"/>
     </row>
   </sheetData>
   <sortState ref="A1:BC199">

--- a/Misc/BioEcon_Parameters Kotze 2017-10-16.xlsx
+++ b/Misc/BioEcon_Parameters Kotze 2017-10-16.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="151">
   <si>
     <t>iterations</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>estimate for SADC countries</t>
   </si>
   <si>
     <t>19% of rabid bites without PEP result in death, (1-0.91)*0.19=0.017</t>
@@ -897,6 +894,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -913,16 +920,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1214,16 +1211,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="59.1640625" style="1" customWidth="1"/>
@@ -1257,15 +1254,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -1310,15 +1307,15 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1340,7 +1337,7 @@
         <v>119</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1363,7 +1360,7 @@
         <v>119</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1386,7 +1383,7 @@
         <v>119</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1409,7 +1406,7 @@
         <v>119</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1505,15 +1502,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
@@ -1535,7 +1532,7 @@
         <v>124</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1558,7 +1555,7 @@
         <v>124</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1604,7 +1601,7 @@
         <v>119</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1620,14 +1617,14 @@
       <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8">
-        <v>0.78</v>
+      <c r="E19" s="11">
+        <v>0.9</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,14 +1640,14 @@
       <c r="D20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="8">
-        <v>0.78</v>
+      <c r="E20" s="11">
+        <v>0.63</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1673,7 +1670,7 @@
         <v>119</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1696,7 +1693,7 @@
         <v>127</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1719,7 +1716,7 @@
         <v>119</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1742,7 +1739,7 @@
         <v>119</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1765,7 +1762,7 @@
         <v>119</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1788,7 +1785,7 @@
         <v>119</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1811,7 +1808,7 @@
         <v>119</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1828,25 +1825,25 @@
         <v>70</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>127</v>
@@ -2057,15 +2054,15 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2081,14 +2078,14 @@
       <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="28">
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2101,17 +2098,17 @@
       <c r="C41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="36">
+      <c r="D41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="30">
         <v>6.7559999999999995E-2</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2127,14 +2124,14 @@
       <c r="D42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="31">
         <v>0.99099999999999999</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2150,14 +2147,14 @@
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="11">
         <v>0.99099999999999999</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>128</v>
+      <c r="G43" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2180,7 +2177,7 @@
         <v>124</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2203,19 +2200,19 @@
         <v>125</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2238,7 +2235,7 @@
         <v>124</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2258,10 +2255,10 @@
         <v>150</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2281,10 +2278,10 @@
         <v>150</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2307,7 +2304,7 @@
         <v>124</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2330,7 +2327,7 @@
         <v>124</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2350,10 +2347,10 @@
         <v>30</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2373,7 +2370,7 @@
         <v>2.5</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>127</v>
@@ -2384,7 +2381,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>4</v>
@@ -2419,10 +2416,10 @@
         <v>2</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2442,10 +2439,10 @@
         <v>2</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2466,10 +2463,10 @@
         <v>1019.09</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2490,10 +2487,10 @@
         <v>2757.3</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2514,10 +2511,10 @@
         <v>4735.8900000000003</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2537,11 +2534,11 @@
         <f>E59+ 36.81 * 0.25 * E6</f>
         <v>8453.7000000000007</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>148</v>
+      <c r="F60" s="25" t="s">
+        <v>147</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
